--- a/RT1062_Pin_Functions.xlsx
+++ b/RT1062_Pin_Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flynn/Desktop/f/projects/present/adcs-hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E843337-F3F5-D44E-8C67-5B7D51C12DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECA68F6-031D-0D4C-9360-6428BB1ACCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="640" windowWidth="24380" windowHeight="18480" xr2:uid="{DA0D0CB3-E4DC-074D-9E72-FFB48C0340DC}"/>
+    <workbookView xWindow="1640" yWindow="2480" windowWidth="24620" windowHeight="15420" xr2:uid="{DA0D0CB3-E4DC-074D-9E72-FFB48C0340DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="231">
   <si>
     <t>Instance</t>
   </si>
@@ -629,7 +629,106 @@
     <t>X</t>
   </si>
   <si>
-    <t>no</t>
+    <t>LPUART2</t>
+  </si>
+  <si>
+    <t>LPUART2_TXD</t>
+  </si>
+  <si>
+    <t>LPUART2_RXD</t>
+  </si>
+  <si>
+    <t>LPUART2_CTS_B</t>
+  </si>
+  <si>
+    <t>LPUART2_RTS_B</t>
+  </si>
+  <si>
+    <t>LPUART3</t>
+  </si>
+  <si>
+    <t>LPUART3_TXD</t>
+  </si>
+  <si>
+    <t>LPUART3_RXD</t>
+  </si>
+  <si>
+    <t>GPIO_EMC_14</t>
+  </si>
+  <si>
+    <t>LPUART3_CTS_B</t>
+  </si>
+  <si>
+    <t>GPIO_EMC_15</t>
+  </si>
+  <si>
+    <t>LPUART3_RTS_B</t>
+  </si>
+  <si>
+    <t>GPIO_EMC_16</t>
+  </si>
+  <si>
+    <t>LPUART4</t>
+  </si>
+  <si>
+    <t>LPUART4_TXD</t>
+  </si>
+  <si>
+    <t>LPUART4_RXD</t>
+  </si>
+  <si>
+    <t>LPUART4_CTS_B</t>
+  </si>
+  <si>
+    <t>LPUART4_RTS_B</t>
+  </si>
+  <si>
+    <t>LPUART5</t>
+  </si>
+  <si>
+    <t>LPUART5_TXD</t>
+  </si>
+  <si>
+    <t>LPUART5_RXD</t>
+  </si>
+  <si>
+    <t>LPUART5_CTS_B</t>
+  </si>
+  <si>
+    <t>LPUART5_RTS_B</t>
+  </si>
+  <si>
+    <t>LPUART1_RXD</t>
+  </si>
+  <si>
+    <t>LPUART1_TXD</t>
+  </si>
+  <si>
+    <t>LPUART1_CTS_B</t>
+  </si>
+  <si>
+    <t>LPUART1_RTS_B</t>
+  </si>
+  <si>
+    <t>LPUART1</t>
+  </si>
+  <si>
+    <t>GPIO_SD_B1_10</t>
+  </si>
+  <si>
+    <t>GPIO_AD_B0_15</t>
+  </si>
+  <si>
+    <t>GPIO_AD_B1 04</t>
+  </si>
+  <si>
+    <t>GPIO_B1_12</t>
+  </si>
+  <si>
+    <t>GPIO_B1_13</t>
+  </si>
+  <si>
+    <t>Selection</t>
   </si>
 </sst>
 </file>
@@ -1009,18 +1108,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C84E9F7-2C99-E74C-845C-95B0F727800E}">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="111" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" customWidth="1"/>
+    <col min="3" max="4" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="10.83203125" style="1"/>
     <col min="11" max="11" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -1043,6 +1142,9 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1212,7 +1314,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>60</v>
       </c>
@@ -1220,7 +1322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>61</v>
       </c>
@@ -1228,7 +1330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>167</v>
       </c>
@@ -1242,7 +1344,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>64</v>
       </c>
@@ -1253,7 +1355,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>65</v>
       </c>
@@ -1267,7 +1369,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>67</v>
       </c>
@@ -1275,7 +1377,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>71</v>
       </c>
@@ -1285,112 +1387,100 @@
       <c r="C23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1401,7 +1491,7 @@
       <c r="C33" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1412,7 +1502,7 @@
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1423,7 +1513,7 @@
       <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1434,7 +1524,7 @@
       <c r="C36" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1445,7 +1535,7 @@
       <c r="C37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1456,7 +1546,7 @@
       <c r="C38" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2227,7 +2317,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
         <v>187</v>
       </c>
@@ -2238,7 +2328,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C114" s="1" t="s">
         <v>155</v>
       </c>
@@ -2246,7 +2336,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
         <v>186</v>
       </c>
@@ -2260,7 +2350,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
         <v>185</v>
       </c>
@@ -2271,7 +2361,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C117" s="1" t="s">
         <v>158</v>
       </c>
@@ -2282,7 +2372,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
         <v>192</v>
       </c>
@@ -2296,7 +2386,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
         <v>160</v>
       </c>
@@ -2307,7 +2397,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C120" s="1" t="s">
         <v>162</v>
       </c>
@@ -2315,7 +2405,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B121" s="1" t="s">
         <v>193</v>
       </c>
@@ -2327,6 +2417,359 @@
       </c>
       <c r="F121" s="1" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B123" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B124" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C127" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B128" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C129" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B130" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B131" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C133" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B135" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C136" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B138" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C139" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B140" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C141" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C143" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C144" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B145" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C146" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C147" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B148" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B149" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C151" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B152" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C153" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B154" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B155" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/RT1062_Pin_Functions.xlsx
+++ b/RT1062_Pin_Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flynn/Desktop/f/projects/present/adcs-hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flynn/adcs-hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECA68F6-031D-0D4C-9360-6428BB1ACCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0E5CA1-5DFE-FE4C-B738-52468E2361F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="2480" windowWidth="24620" windowHeight="15420" xr2:uid="{DA0D0CB3-E4DC-074D-9E72-FFB48C0340DC}"/>
+    <workbookView xWindow="12740" yWindow="3720" windowWidth="24620" windowHeight="15420" xr2:uid="{DA0D0CB3-E4DC-074D-9E72-FFB48C0340DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1110,7 +1110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C84E9F7-2C99-E74C-845C-95B0F727800E}">
   <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="111" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="111" workbookViewId="0">
       <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
